--- a/allcolumns_artikel..xlsx
+++ b/allcolumns_artikel..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,433 +436,495 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>sample_wi_100.xlsx</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>calltype</t>
+          <t>sample_wise_produk_58.xlsx</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cek_laporan</t>
+          <t>sample_wise_program_41.xlsx</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>channel</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>closing</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>deskripsi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>edukasi_cross_selling</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>empati</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>gali_informasi</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>greeting</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>isi_knowledge</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>jenis_produk</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>kategori</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>konfirmasi</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>konfirmasi_ulang</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>lokasi</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>markdown_benefit</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>markdown_syarat_dan_ketentuan</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>merchant</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>message_wi</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>message_wi_en</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>modified_time</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>nama_knowledge</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>nama_program</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>pembuatan_laporan</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>produk</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>section</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>solusi</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>sub_kategori</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>syarat_dan_ketentuan</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>varian_produk</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>verifikasi</t>
+          <t>sample_wise_promo_90.xlsx</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>sample_wi_100.xlsx</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>593</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>751</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>1402</v>
-      </c>
-      <c r="I2" t="n">
-        <v>509</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>3628</v>
-      </c>
-      <c r="L2" t="n">
-        <v>676</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>91</v>
-      </c>
-      <c r="P2" t="n">
-        <v>854</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>869</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>213</v>
-      </c>
-      <c r="W2" t="n">
-        <v>227</v>
-      </c>
-      <c r="X2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>2374</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9869</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
-        <v>190</v>
-      </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="n">
-        <v>3701</v>
+        <v>1845</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>sample_wise_produk_58.xlsx</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>calltype</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>2513</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>sample_wise_program_41.xlsx</t>
+          <t>cek_laporan</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1845</v>
+        <v>593</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>408</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>20</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>59</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>3974</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>sample_wise_promo_90.xlsx</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10110</v>
-      </c>
+          <t>channel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>231</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>closing</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>751</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>deskripsi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>408</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>edukasi_cross_selling</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1402</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>empati</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>509</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>gali_informasi</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3628</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>greeting</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>676</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>isi_knowledge</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>jenis_produk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>kategori</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
         <v>25</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>konfirmasi</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>854</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>konfirmasi_ulang</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>869</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>lokasi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
         <v>273</v>
       </c>
-      <c r="S5" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>markdown_benefit</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
         <v>4603</v>
       </c>
-      <c r="T5" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>markdown_syarat_dan_ketentuan</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>1606</v>
       </c>
-      <c r="U5" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>merchant</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
         <v>63</v>
       </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>message_wi</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>213</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>message_wi_en</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>227</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>modified_time</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" t="n">
         <v>35</v>
       </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="n">
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>nama_knowledge</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>28</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>nama_program</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>59</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>pembuatan_laporan</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2374</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>produk</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>24</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>20</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>solusi</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9869</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>sub_kategori</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>190</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>syarat_dan_ketentuan</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>3974</v>
+      </c>
+      <c r="E33" t="n">
         <v>1936</v>
       </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>varian_produk</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>verifikasi</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3701</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
